--- a/B1_refereestats.xlsx
+++ b/B1_refereestats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2EECD1-9BF4-41D2-BFA0-7E29B4B3530E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B072DD68-6938-468E-BA69-A66762E4EE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,8 +202,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,35 +583,35 @@
       <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1335</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>51.346153846153847</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>16025</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>616.34615384615381</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>12600</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>484.61538461538464</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>40.5</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>46.615384615384613</v>
       </c>
-      <c r="L2">
-        <v>30.423076923076923</v>
+      <c r="L2" s="1">
+        <v>34.03846153846154</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -620,35 +621,35 @@
       <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>26</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1065</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>40.96153846153846</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>7300</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>280.76923076923077</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>7200</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>276.92307692307691</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>42.46153846153846</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>38.115384615384613</v>
       </c>
-      <c r="L3">
-        <v>24.5</v>
+      <c r="L3" s="1">
+        <v>35.730769230769234</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -658,35 +659,35 @@
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>24</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1160</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>48.333333333333336</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>15650</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>652.08333333333337</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>9800</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>408.33333333333331</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>47.791666666666664</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>50</v>
       </c>
-      <c r="L4">
-        <v>33.916666666666664</v>
+      <c r="L4" s="1">
+        <v>38.916666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -696,35 +697,35 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>24</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1170</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>48.75</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>12550</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>522.91666666666663</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>11250</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>468.75</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>50.833333333333336</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>34.541666666666664</v>
       </c>
-      <c r="L5">
-        <v>28.833333333333332</v>
+      <c r="L5" s="1">
+        <v>33.916666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -734,35 +735,35 @@
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>905</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>43.095238095238095</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>10950</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>521.42857142857144</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>10350</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>492.85714285714283</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>38</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>42.238095238095241</v>
       </c>
-      <c r="L6">
-        <v>26.761904761904763</v>
+      <c r="L6" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -772,35 +773,35 @@
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>865</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>41.19047619047619</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>10050</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>478.57142857142856</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>10675</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>508.33333333333331</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>30.571428571428573</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>43.714285714285715</v>
       </c>
-      <c r="L7">
-        <v>23.38095238095238</v>
+      <c r="L7" s="1">
+        <v>30.38095238095238</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -810,35 +811,35 @@
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>21</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>890</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>42.38095238095238</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>8700</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>414.28571428571428</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>7500</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>357.14285714285717</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>40.095238095238095</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>40.904761904761905</v>
       </c>
-      <c r="L8">
-        <v>24.476190476190474</v>
+      <c r="L8" s="1">
+        <v>30.19047619047619</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -848,35 +849,35 @@
       <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>21</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>790</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>37.61904761904762</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>7050</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>335.71428571428572</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>4450</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>211.9047619047619</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>30.904761904761905</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>39.714285714285715</v>
       </c>
-      <c r="L9">
-        <v>20.333333333333332</v>
+      <c r="L9" s="1">
+        <v>40.857142857142854</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -886,35 +887,35 @@
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>20</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>785</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>39.25</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>9300</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>465</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>3750</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>187.5</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>31</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>52.15</v>
       </c>
-      <c r="L10">
-        <v>26.75</v>
+      <c r="L10" s="1">
+        <v>43.45</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -924,35 +925,35 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>635</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>33.421052631578945</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>5300</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>278.94736842105266</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>5100</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>268.42105263157896</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>38.05263157894737</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>39.89473684210526</v>
       </c>
-      <c r="L11">
-        <v>17.368421052631579</v>
+      <c r="L11" s="1">
+        <v>41.789473684210527</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -962,35 +963,35 @@
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>18</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>650</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>36.111111111111114</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>6400</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>355.55555555555554</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>4650</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>258.33333333333331</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>41.666666666666664</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>40.666666666666664</v>
       </c>
-      <c r="L12">
-        <v>19.111111111111111</v>
+      <c r="L12" s="1">
+        <v>45.666666666666664</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1000,35 +1001,35 @@
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>17</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>585</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>34.411764705882355</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>4500</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>264.70588235294116</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>3550</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>208.8235294117647</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>39.411764705882355</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>36.882352941176471</v>
       </c>
-      <c r="L13">
-        <v>26.352941176470587</v>
+      <c r="L13" s="1">
+        <v>37.411764705882355</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1038,35 +1039,35 @@
       <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>16</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>615</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>38.4375</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>7175</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>448.4375</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>4400</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>275</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>43.8125</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>43.875</v>
       </c>
-      <c r="L14">
-        <v>26.5625</v>
+      <c r="L14" s="1">
+        <v>38.1875</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1076,35 +1077,35 @@
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>695</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>53.46153846153846</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>8850</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>680.76923076923072</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>7250</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>557.69230769230774</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>32.307692307692307</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>34.53846153846154</v>
       </c>
-      <c r="L15">
-        <v>23.46153846153846</v>
+      <c r="L15" s="1">
+        <v>24.76923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1114,35 +1115,35 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>435</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>39.545454545454547</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>5600</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>509.09090909090907</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>4800</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>436.36363636363637</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>48.272727272727273</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>37.272727272727273</v>
       </c>
-      <c r="L16">
-        <v>26.545454545454547</v>
+      <c r="L16" s="1">
+        <v>33.545454545454547</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1152,35 +1153,35 @@
       <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>240</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>40</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>2500</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>416.66666666666669</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>2300</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>383.33333333333331</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>31.166666666666668</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>58.166666666666664</v>
       </c>
-      <c r="L17">
-        <v>27.166666666666668</v>
+      <c r="L17" s="1">
+        <v>40.5</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1190,35 +1191,35 @@
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>260</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>65</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>4050</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1012.5</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>1100</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>275</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>50.5</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>46</v>
       </c>
-      <c r="L18">
-        <v>29.75</v>
+      <c r="L18" s="1">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1228,35 +1229,35 @@
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>150</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>75</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>4500</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>2250</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>2700</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>1350</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>48.5</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>24.5</v>
       </c>
-      <c r="L19">
-        <v>3.5</v>
+      <c r="L19" s="1">
+        <v>48.5</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1266,35 +1267,35 @@
       <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>14</v>
       </c>
-      <c r="L20">
-        <v>0</v>
+      <c r="L20" s="1">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/B1_refereestats.xlsx
+++ b/B1_refereestats.xlsx
@@ -110,13 +110,22 @@
     <t>Jan Boterberg</t>
   </si>
   <si>
+    <t>Nathan Verboomen</t>
+  </si>
+  <si>
+    <t>Kevin Van Damme</t>
+  </si>
+  <si>
+    <t>Jasper Vergoote</t>
+  </si>
+  <si>
+    <t>Lawrence Visser</t>
+  </si>
+  <si>
     <t>Nicolas Laforge</t>
   </si>
   <si>
-    <t>Nathan Verboomen</t>
-  </si>
-  <si>
-    <t>Kevin Van Damme</t>
+    <t>Wim Smet</t>
   </si>
   <si>
     <t>Simon Bourdeaud'hui</t>
@@ -125,25 +134,16 @@
     <t>Erik Lambrechts</t>
   </si>
   <si>
-    <t>Jasper Vergoote</t>
+    <t>Bram Van Driessche</t>
+  </si>
+  <si>
+    <t>Bert Put</t>
   </si>
   <si>
     <t>Lothar D'Hondt</t>
   </si>
   <si>
-    <t>Lawrence Visser</t>
-  </si>
-  <si>
     <t>Wesli De Cremer</t>
-  </si>
-  <si>
-    <t>Wim Smet</t>
-  </si>
-  <si>
-    <t>Bram Van Driessche</t>
-  </si>
-  <si>
-    <t>Bert Put</t>
   </si>
   <si>
     <t>Michiel Allaerts</t>
@@ -277,7 +277,7 @@
         <v>34.4375</v>
       </c>
       <c r="M2" t="n">
-        <v>21.0</v>
+        <v>21.75</v>
       </c>
       <c r="N2" t="n">
         <v>1.9468390804597702</v>
@@ -291,37 +291,37 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D3" t="n">
         <v>290.0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.25</v>
+        <v>32.22222222222222</v>
       </c>
       <c r="F3" t="n">
         <v>2450.0</v>
       </c>
       <c r="G3" t="n">
-        <v>306.25</v>
+        <v>272.22222222222223</v>
       </c>
       <c r="H3" t="n">
-        <v>1600.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I3" t="n">
         <v>200.0</v>
       </c>
       <c r="J3" t="n">
-        <v>38.0</v>
+        <v>39.77777777777778</v>
       </c>
       <c r="K3" t="n">
-        <v>59.5</v>
+        <v>53.44444444444444</v>
       </c>
       <c r="L3" t="n">
-        <v>52.625</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="M3" t="n">
-        <v>23.0</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="N3" t="n">
         <v>1.5263157894736843</v>
@@ -335,40 +335,40 @@
         <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n">
-        <v>70.0</v>
+        <v>120.0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.333333333333332</v>
+        <v>30.0</v>
       </c>
       <c r="F4" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="G4" t="n">
         <v>200.0</v>
       </c>
-      <c r="G4" t="n">
-        <v>66.66666666666667</v>
-      </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.0</v>
+        <v>38.75</v>
       </c>
       <c r="K4" t="n">
-        <v>62.0</v>
+        <v>47.0</v>
       </c>
       <c r="L4" t="n">
-        <v>62.0</v>
+        <v>47.0</v>
       </c>
       <c r="M4" t="n">
-        <v>21.0</v>
+        <v>22.75</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1111111111111112</v>
+        <v>1.3186813186813187</v>
       </c>
     </row>
     <row r="5">
@@ -379,40 +379,40 @@
         <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>150.0</v>
+        <v>225.0</v>
       </c>
       <c r="E5" t="n">
         <v>75.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2700.0</v>
+        <v>4250.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1350.0</v>
+        <v>1416.6666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>2200.0</v>
+        <v>2900.0</v>
       </c>
       <c r="I5" t="n">
-        <v>1100.0</v>
+        <v>966.6666666666666</v>
       </c>
       <c r="J5" t="n">
-        <v>32.5</v>
+        <v>42.0</v>
       </c>
       <c r="K5" t="n">
-        <v>17.0</v>
+        <v>57.333333333333336</v>
       </c>
       <c r="L5" t="n">
-        <v>17.0</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="M5" t="n">
-        <v>19.0</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8461538461538463</v>
+        <v>3.2142857142857144</v>
       </c>
     </row>
     <row r="6">
@@ -423,40 +423,40 @@
         <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="n">
-        <v>160.0</v>
+        <v>215.0</v>
       </c>
       <c r="E6" t="n">
-        <v>80.0</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>3200.0</v>
+        <v>3500.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1600.0</v>
+        <v>1166.6666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>2000.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1000.0</v>
+        <v>600.0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="L6" t="n">
-        <v>40.5</v>
+        <v>24.0</v>
       </c>
       <c r="M6" t="n">
-        <v>27.0</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="N6" t="n">
-        <v>2.909090909090909</v>
+        <v>3.028169014084507</v>
       </c>
     </row>
     <row r="7">
@@ -467,40 +467,40 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="n">
-        <v>165.0</v>
+        <v>140.0</v>
       </c>
       <c r="E7" t="n">
-        <v>82.5</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="F7" t="n">
-        <v>2900.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1450.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>1800.0</v>
+        <v>1300.0</v>
       </c>
       <c r="I7" t="n">
-        <v>900.0</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>40.0</v>
+        <v>55.0</v>
       </c>
       <c r="K7" t="n">
-        <v>39.0</v>
+        <v>28.666666666666668</v>
       </c>
       <c r="L7" t="n">
-        <v>13.0</v>
+        <v>28.666666666666668</v>
       </c>
       <c r="M7" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4375</v>
+        <v>2.9166666666666665</v>
       </c>
     </row>
     <row r="8">
@@ -514,37 +514,37 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>80.0</v>
+        <v>105.0</v>
       </c>
       <c r="E8" t="n">
-        <v>40.0</v>
+        <v>52.5</v>
       </c>
       <c r="F8" t="n">
-        <v>700.0</v>
+        <v>1300.0</v>
       </c>
       <c r="G8" t="n">
-        <v>350.0</v>
+        <v>650.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1400.0</v>
+        <v>500.0</v>
       </c>
       <c r="I8" t="n">
-        <v>700.0</v>
+        <v>250.0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.0</v>
+        <v>46.5</v>
       </c>
       <c r="K8" t="n">
-        <v>45.5</v>
+        <v>46.5</v>
       </c>
       <c r="L8" t="n">
-        <v>21.0</v>
+        <v>43.0</v>
       </c>
       <c r="M8" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.5686274509803921</v>
+        <v>2.1875</v>
       </c>
     </row>
     <row r="9">
@@ -558,37 +558,37 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>80.0</v>
+        <v>150.0</v>
       </c>
       <c r="E9" t="n">
-        <v>40.0</v>
+        <v>75.0</v>
       </c>
       <c r="F9" t="n">
-        <v>600.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G9" t="n">
-        <v>300.0</v>
+        <v>1350.0</v>
       </c>
       <c r="H9" t="n">
-        <v>600.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I9" t="n">
-        <v>300.0</v>
+        <v>1100.0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.5</v>
+        <v>32.5</v>
       </c>
       <c r="K9" t="n">
-        <v>76.5</v>
+        <v>17.0</v>
       </c>
       <c r="L9" t="n">
-        <v>51.5</v>
+        <v>17.0</v>
       </c>
       <c r="M9" t="n">
-        <v>27.0</v>
+        <v>19.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.4814814814814814</v>
+        <v>3.8461538461538463</v>
       </c>
     </row>
     <row r="10">
@@ -602,37 +602,37 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>90.0</v>
+        <v>80.0</v>
       </c>
       <c r="E10" t="n">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1300.0</v>
+        <v>700.0</v>
       </c>
       <c r="G10" t="n">
-        <v>650.0</v>
+        <v>350.0</v>
       </c>
       <c r="H10" t="n">
-        <v>700.0</v>
+        <v>300.0</v>
       </c>
       <c r="I10" t="n">
-        <v>350.0</v>
+        <v>150.0</v>
       </c>
       <c r="J10" t="n">
-        <v>54.0</v>
+        <v>52.0</v>
       </c>
       <c r="K10" t="n">
-        <v>26.5</v>
+        <v>65.0</v>
       </c>
       <c r="L10" t="n">
-        <v>26.5</v>
+        <v>35.5</v>
       </c>
       <c r="M10" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.6470588235294117</v>
+        <v>2.1052631578947367</v>
       </c>
     </row>
     <row r="11">
@@ -646,37 +646,37 @@
         <v>2.0</v>
       </c>
       <c r="D11" t="n">
-        <v>110.0</v>
+        <v>80.0</v>
       </c>
       <c r="E11" t="n">
-        <v>55.0</v>
+        <v>40.0</v>
       </c>
       <c r="F11" t="n">
-        <v>1100.0</v>
+        <v>700.0</v>
       </c>
       <c r="G11" t="n">
-        <v>550.0</v>
+        <v>350.0</v>
       </c>
       <c r="H11" t="n">
-        <v>400.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I11" t="n">
-        <v>200.0</v>
+        <v>700.0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.0</v>
+        <v>21.0</v>
       </c>
       <c r="K11" t="n">
-        <v>54.0</v>
+        <v>45.5</v>
       </c>
       <c r="L11" t="n">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
       <c r="M11" t="n">
-        <v>27.0</v>
+        <v>25.5</v>
       </c>
       <c r="N11" t="n">
-        <v>2.0</v>
+        <v>1.5686274509803921</v>
       </c>
     </row>
     <row r="12">
@@ -687,40 +687,40 @@
         <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" t="n">
-        <v>75.0</v>
+        <v>80.0</v>
       </c>
       <c r="E12" t="n">
-        <v>75.0</v>
+        <v>40.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1100.0</v>
+        <v>600.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1100.0</v>
+        <v>300.0</v>
       </c>
       <c r="H12" t="n">
-        <v>300.0</v>
+        <v>600.0</v>
       </c>
       <c r="I12" t="n">
         <v>300.0</v>
       </c>
       <c r="J12" t="n">
-        <v>54.0</v>
+        <v>56.5</v>
       </c>
       <c r="K12" t="n">
-        <v>47.0</v>
+        <v>76.5</v>
       </c>
       <c r="L12" t="n">
-        <v>47.0</v>
+        <v>51.5</v>
       </c>
       <c r="M12" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="N12" t="n">
-        <v>2.586206896551724</v>
+        <v>1.4814814814814814</v>
       </c>
     </row>
     <row r="13">
@@ -731,40 +731,40 @@
         <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13" t="n">
-        <v>20.0</v>
+        <v>110.0</v>
       </c>
       <c r="E13" t="n">
-        <v>20.0</v>
+        <v>55.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>900.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>450.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>500.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="K13" t="n">
-        <v>55.0</v>
+        <v>30.0</v>
       </c>
       <c r="L13" t="n">
-        <v>55.0</v>
+        <v>30.0</v>
       </c>
       <c r="M13" t="n">
-        <v>19.0</v>
+        <v>22.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.0526315789473684</v>
+        <v>2.4444444444444446</v>
       </c>
     </row>
     <row r="14">
@@ -775,40 +775,40 @@
         <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="E14" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="F14" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="H14" t="n">
-        <v>300.0</v>
+        <v>600.0</v>
       </c>
       <c r="I14" t="n">
         <v>300.0</v>
       </c>
       <c r="J14" t="n">
-        <v>17.0</v>
+        <v>12.5</v>
       </c>
       <c r="K14" t="n">
-        <v>76.0</v>
+        <v>49.5</v>
       </c>
       <c r="L14" t="n">
-        <v>17.0</v>
+        <v>49.5</v>
       </c>
       <c r="M14" t="n">
-        <v>23.0</v>
+        <v>19.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.7391304347826086</v>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="15">
@@ -819,37 +819,37 @@
         <v>42</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15" t="n">
-        <v>40.0</v>
+        <v>110.0</v>
       </c>
       <c r="E15" t="n">
-        <v>40.0</v>
+        <v>55.0</v>
       </c>
       <c r="F15" t="n">
-        <v>300.0</v>
+        <v>1100.0</v>
       </c>
       <c r="G15" t="n">
-        <v>300.0</v>
+        <v>550.0</v>
       </c>
       <c r="H15" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
       <c r="I15" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="J15" t="n">
-        <v>85.0</v>
+        <v>38.0</v>
       </c>
       <c r="K15" t="n">
-        <v>15.0</v>
+        <v>54.0</v>
       </c>
       <c r="L15" t="n">
-        <v>15.0</v>
+        <v>37.0</v>
       </c>
       <c r="M15" t="n">
-        <v>20.0</v>
+        <v>27.5</v>
       </c>
       <c r="N15" t="n">
         <v>2.0</v>
@@ -866,10 +866,10 @@
         <v>1.0</v>
       </c>
       <c r="D16" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -887,16 +887,16 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>94.0</v>
+        <v>55.0</v>
       </c>
       <c r="L16" t="n">
-        <v>94.0</v>
+        <v>55.0</v>
       </c>
       <c r="M16" t="n">
         <v>19.0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5263157894736842</v>
+        <v>1.0526315789473684</v>
       </c>
     </row>
     <row r="17">

--- a/B1_refereestats.xlsx
+++ b/B1_refereestats.xlsx
@@ -110,43 +110,43 @@
     <t>Jan Boterberg</t>
   </si>
   <si>
+    <t>Nicolas Laforge</t>
+  </si>
+  <si>
     <t>Nathan Verboomen</t>
   </si>
   <si>
+    <t>Erik Lambrechts</t>
+  </si>
+  <si>
+    <t>Jasper Vergoote</t>
+  </si>
+  <si>
+    <t>Lawrence Visser</t>
+  </si>
+  <si>
     <t>Kevin Van Damme</t>
   </si>
   <si>
-    <t>Jasper Vergoote</t>
-  </si>
-  <si>
-    <t>Lawrence Visser</t>
-  </si>
-  <si>
-    <t>Nicolas Laforge</t>
-  </si>
-  <si>
     <t>Wim Smet</t>
   </si>
   <si>
     <t>Simon Bourdeaud'hui</t>
   </si>
   <si>
-    <t>Erik Lambrechts</t>
+    <t>Bert Put</t>
+  </si>
+  <si>
+    <t>Lothar D'Hondt</t>
+  </si>
+  <si>
+    <t>Michiel Allaerts</t>
+  </si>
+  <si>
+    <t>Wesli De Cremer</t>
   </si>
   <si>
     <t>Bram Van Driessche</t>
-  </si>
-  <si>
-    <t>Bert Put</t>
-  </si>
-  <si>
-    <t>Lothar D'Hondt</t>
-  </si>
-  <si>
-    <t>Wesli De Cremer</t>
-  </si>
-  <si>
-    <t>Michiel Allaerts</t>
   </si>
 </sst>
 </file>
@@ -291,40 +291,40 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="D3" t="n">
-        <v>290.0</v>
+        <v>370.0</v>
       </c>
       <c r="E3" t="n">
-        <v>32.22222222222222</v>
+        <v>33.63636363636363</v>
       </c>
       <c r="F3" t="n">
-        <v>2450.0</v>
+        <v>2750.0</v>
       </c>
       <c r="G3" t="n">
-        <v>272.22222222222223</v>
+        <v>250.0</v>
       </c>
       <c r="H3" t="n">
-        <v>1800.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I3" t="n">
-        <v>200.0</v>
+        <v>190.9090909090909</v>
       </c>
       <c r="J3" t="n">
-        <v>39.77777777777778</v>
+        <v>44.18181818181818</v>
       </c>
       <c r="K3" t="n">
-        <v>53.44444444444444</v>
+        <v>47.45454545454545</v>
       </c>
       <c r="L3" t="n">
-        <v>47.333333333333336</v>
+        <v>46.81818181818182</v>
       </c>
       <c r="M3" t="n">
-        <v>21.11111111111111</v>
+        <v>20.818181818181817</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5263157894736843</v>
+        <v>1.6157205240174672</v>
       </c>
     </row>
     <row r="4">
@@ -379,40 +379,40 @@
         <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
-        <v>225.0</v>
+        <v>275.0</v>
       </c>
       <c r="E5" t="n">
-        <v>75.0</v>
+        <v>68.75</v>
       </c>
       <c r="F5" t="n">
-        <v>4250.0</v>
+        <v>3750.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1416.6666666666667</v>
+        <v>937.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2900.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I5" t="n">
-        <v>966.6666666666666</v>
+        <v>750.0</v>
       </c>
       <c r="J5" t="n">
-        <v>42.0</v>
+        <v>37.75</v>
       </c>
       <c r="K5" t="n">
-        <v>57.333333333333336</v>
+        <v>22.75</v>
       </c>
       <c r="L5" t="n">
-        <v>38.333333333333336</v>
+        <v>22.75</v>
       </c>
       <c r="M5" t="n">
-        <v>23.333333333333332</v>
+        <v>20.25</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2142857142857144</v>
+        <v>3.3950617283950617</v>
       </c>
     </row>
     <row r="6">
@@ -423,40 +423,40 @@
         <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" t="n">
-        <v>215.0</v>
+        <v>285.0</v>
       </c>
       <c r="E6" t="n">
-        <v>71.66666666666667</v>
+        <v>71.25</v>
       </c>
       <c r="F6" t="n">
-        <v>3500.0</v>
+        <v>5050.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1166.6666666666667</v>
+        <v>1262.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1800.0</v>
+        <v>3700.0</v>
       </c>
       <c r="I6" t="n">
-        <v>600.0</v>
+        <v>925.0</v>
       </c>
       <c r="J6" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="K6" t="n">
-        <v>53.333333333333336</v>
+        <v>44.0</v>
       </c>
       <c r="L6" t="n">
-        <v>24.0</v>
+        <v>29.75</v>
       </c>
       <c r="M6" t="n">
-        <v>23.666666666666668</v>
+        <v>24.25</v>
       </c>
       <c r="N6" t="n">
-        <v>3.028169014084507</v>
+        <v>2.9381443298969074</v>
       </c>
     </row>
     <row r="7">
@@ -467,40 +467,40 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7" t="n">
-        <v>140.0</v>
+        <v>190.0</v>
       </c>
       <c r="E7" t="n">
-        <v>46.666666666666664</v>
+        <v>47.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1900.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G7" t="n">
-        <v>633.3333333333334</v>
+        <v>400.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1300.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I7" t="n">
-        <v>433.3333333333333</v>
+        <v>600.0</v>
       </c>
       <c r="J7" t="n">
-        <v>55.0</v>
+        <v>55.25</v>
       </c>
       <c r="K7" t="n">
-        <v>28.666666666666668</v>
+        <v>61.75</v>
       </c>
       <c r="L7" t="n">
-        <v>28.666666666666668</v>
+        <v>39.5</v>
       </c>
       <c r="M7" t="n">
-        <v>16.0</v>
+        <v>25.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.9166666666666665</v>
+        <v>1.881188118811881</v>
       </c>
     </row>
     <row r="8">
@@ -511,40 +511,40 @@
         <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D8" t="n">
-        <v>105.0</v>
+        <v>180.0</v>
       </c>
       <c r="E8" t="n">
-        <v>52.5</v>
+        <v>45.0</v>
       </c>
       <c r="F8" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="H8" t="n">
         <v>1300.0</v>
       </c>
-      <c r="G8" t="n">
-        <v>650.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>500.0</v>
-      </c>
       <c r="I8" t="n">
-        <v>250.0</v>
+        <v>325.0</v>
       </c>
       <c r="J8" t="n">
-        <v>46.5</v>
+        <v>64.5</v>
       </c>
       <c r="K8" t="n">
-        <v>46.5</v>
+        <v>36.25</v>
       </c>
       <c r="L8" t="n">
-        <v>43.0</v>
+        <v>36.25</v>
       </c>
       <c r="M8" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.1875</v>
+        <v>2.8125</v>
       </c>
     </row>
     <row r="9">
@@ -555,40 +555,40 @@
         <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9" t="n">
-        <v>150.0</v>
+        <v>205.0</v>
       </c>
       <c r="E9" t="n">
-        <v>75.0</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>2700.0</v>
+        <v>2200.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1350.0</v>
+        <v>733.3333333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>2200.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1100.0</v>
+        <v>500.0</v>
       </c>
       <c r="J9" t="n">
-        <v>32.5</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="K9" t="n">
-        <v>17.0</v>
+        <v>47.0</v>
       </c>
       <c r="L9" t="n">
-        <v>17.0</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="M9" t="n">
-        <v>19.5</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="N9" t="n">
-        <v>3.8461538461538463</v>
+        <v>3.0597014925373136</v>
       </c>
     </row>
     <row r="10">
@@ -599,40 +599,40 @@
         <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>80.0</v>
+        <v>215.0</v>
       </c>
       <c r="E10" t="n">
-        <v>40.0</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>700.0</v>
+        <v>3500.0</v>
       </c>
       <c r="G10" t="n">
-        <v>350.0</v>
+        <v>1166.6666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>300.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I10" t="n">
-        <v>150.0</v>
+        <v>600.0</v>
       </c>
       <c r="J10" t="n">
-        <v>52.0</v>
+        <v>42.0</v>
       </c>
       <c r="K10" t="n">
-        <v>65.0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="L10" t="n">
-        <v>35.5</v>
+        <v>24.0</v>
       </c>
       <c r="M10" t="n">
-        <v>19.0</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="N10" t="n">
-        <v>2.1052631578947367</v>
+        <v>3.028169014084507</v>
       </c>
     </row>
     <row r="11">
@@ -643,40 +643,40 @@
         <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" t="n">
         <v>80.0</v>
       </c>
       <c r="E11" t="n">
-        <v>40.0</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="F11" t="n">
         <v>700.0</v>
       </c>
       <c r="G11" t="n">
-        <v>350.0</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>1400.0</v>
+        <v>300.0</v>
       </c>
       <c r="I11" t="n">
-        <v>700.0</v>
+        <v>100.0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.0</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="K11" t="n">
-        <v>45.5</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="L11" t="n">
-        <v>21.0</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="M11" t="n">
-        <v>25.5</v>
+        <v>22.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.5686274509803921</v>
+        <v>1.2121212121212122</v>
       </c>
     </row>
     <row r="12">
@@ -687,40 +687,40 @@
         <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>80.0</v>
+        <v>120.0</v>
       </c>
       <c r="E12" t="n">
         <v>40.0</v>
       </c>
       <c r="F12" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>333.3333333333333</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="I12" t="n">
         <v>600.0</v>
       </c>
-      <c r="G12" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>300.0</v>
-      </c>
       <c r="J12" t="n">
-        <v>56.5</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="K12" t="n">
-        <v>76.5</v>
+        <v>41.333333333333336</v>
       </c>
       <c r="L12" t="n">
-        <v>51.5</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="M12" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.4814814814814814</v>
+        <v>1.7391304347826086</v>
       </c>
     </row>
     <row r="13">
@@ -731,40 +731,40 @@
         <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0</v>
+        <v>135.0</v>
       </c>
       <c r="E13" t="n">
-        <v>55.0</v>
+        <v>45.0</v>
       </c>
       <c r="F13" t="n">
-        <v>900.0</v>
+        <v>1250.0</v>
       </c>
       <c r="G13" t="n">
-        <v>450.0</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1000.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I13" t="n">
-        <v>500.0</v>
+        <v>400.0</v>
       </c>
       <c r="J13" t="n">
-        <v>76.0</v>
+        <v>30.0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.0</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="L13" t="n">
-        <v>30.0</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="M13" t="n">
-        <v>22.5</v>
+        <v>23.0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.4444444444444446</v>
+        <v>1.9565217391304348</v>
       </c>
     </row>
     <row r="14">
@@ -775,40 +775,40 @@
         <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>60.0</v>
+        <v>140.0</v>
       </c>
       <c r="E14" t="n">
-        <v>30.0</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="F14" t="n">
-        <v>600.0</v>
+        <v>1300.0</v>
       </c>
       <c r="G14" t="n">
-        <v>300.0</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
       <c r="I14" t="n">
-        <v>300.0</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="J14" t="n">
-        <v>12.5</v>
+        <v>53.0</v>
       </c>
       <c r="K14" t="n">
-        <v>49.5</v>
+        <v>54.0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.5</v>
+        <v>42.666666666666664</v>
       </c>
       <c r="M14" t="n">
-        <v>19.5</v>
+        <v>25.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.5384615384615385</v>
+        <v>1.8666666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -819,40 +819,40 @@
         <v>42</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>110.0</v>
+        <v>170.0</v>
       </c>
       <c r="E15" t="n">
-        <v>55.0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F15" t="n">
-        <v>1100.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G15" t="n">
-        <v>550.0</v>
+        <v>700.0</v>
       </c>
       <c r="H15" t="n">
-        <v>400.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I15" t="n">
-        <v>200.0</v>
+        <v>900.0</v>
       </c>
       <c r="J15" t="n">
-        <v>38.0</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="K15" t="n">
-        <v>54.0</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="L15" t="n">
-        <v>37.0</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="M15" t="n">
-        <v>27.5</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="N15" t="n">
-        <v>2.0</v>
+        <v>2.7419354838709675</v>
       </c>
     </row>
     <row r="16">
@@ -863,40 +863,40 @@
         <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>20.0</v>
+        <v>75.0</v>
       </c>
       <c r="E16" t="n">
-        <v>20.0</v>
+        <v>37.5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>450.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>225.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>1050.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>525.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>13.5</v>
       </c>
       <c r="K16" t="n">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="L16" t="n">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
       <c r="M16" t="n">
-        <v>19.0</v>
+        <v>20.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.0526315789473684</v>
+        <v>1.829268292682927</v>
       </c>
     </row>
     <row r="17">
@@ -907,40 +907,40 @@
         <v>44</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" t="n">
-        <v>70.0</v>
+        <v>110.0</v>
       </c>
       <c r="E17" t="n">
-        <v>70.0</v>
+        <v>55.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1200.0</v>
+        <v>900.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1200.0</v>
+        <v>450.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1200.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1200.0</v>
+        <v>500.0</v>
       </c>
       <c r="J17" t="n">
-        <v>24.0</v>
+        <v>76.0</v>
       </c>
       <c r="K17" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="L17" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="M17" t="n">
-        <v>28.0</v>
+        <v>22.5</v>
       </c>
       <c r="N17" t="n">
-        <v>2.5</v>
+        <v>2.4444444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/B1_refereestats.xlsx
+++ b/B1_refereestats.xlsx
@@ -107,46 +107,46 @@
     <t>0</t>
   </si>
   <si>
+    <t>Jasper Vergoote</t>
+  </si>
+  <si>
+    <t>Nicolas Laforge</t>
+  </si>
+  <si>
+    <t>Nathan Verboomen</t>
+  </si>
+  <si>
+    <t>Kevin Van Damme</t>
+  </si>
+  <si>
+    <t>Erik Lambrechts</t>
+  </si>
+  <si>
+    <t>Lothar D'Hondt</t>
+  </si>
+  <si>
     <t>Jan Boterberg</t>
   </si>
   <si>
-    <t>Nicolas Laforge</t>
-  </si>
-  <si>
-    <t>Nathan Verboomen</t>
-  </si>
-  <si>
-    <t>Erik Lambrechts</t>
-  </si>
-  <si>
-    <t>Jasper Vergoote</t>
+    <t>Wim Smet</t>
+  </si>
+  <si>
+    <t>Simon Bourdeaud'hui</t>
+  </si>
+  <si>
+    <t>Bert Put</t>
   </si>
   <si>
     <t>Lawrence Visser</t>
   </si>
   <si>
-    <t>Kevin Van Damme</t>
-  </si>
-  <si>
-    <t>Wim Smet</t>
-  </si>
-  <si>
-    <t>Simon Bourdeaud'hui</t>
-  </si>
-  <si>
-    <t>Bert Put</t>
-  </si>
-  <si>
-    <t>Lothar D'Hondt</t>
+    <t>Wesli De Cremer</t>
+  </si>
+  <si>
+    <t>Bram Van Driessche</t>
   </si>
   <si>
     <t>Michiel Allaerts</t>
-  </si>
-  <si>
-    <t>Wesli De Cremer</t>
-  </si>
-  <si>
-    <t>Bram Van Driessche</t>
   </si>
 </sst>
 </file>
@@ -291,40 +291,40 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="D3" t="n">
-        <v>370.0</v>
+        <v>470.0</v>
       </c>
       <c r="E3" t="n">
-        <v>33.63636363636363</v>
+        <v>36.15384615384615</v>
       </c>
       <c r="F3" t="n">
-        <v>2750.0</v>
+        <v>3750.0</v>
       </c>
       <c r="G3" t="n">
-        <v>250.0</v>
+        <v>288.46153846153845</v>
       </c>
       <c r="H3" t="n">
-        <v>2100.0</v>
+        <v>3100.0</v>
       </c>
       <c r="I3" t="n">
-        <v>190.9090909090909</v>
+        <v>238.46153846153845</v>
       </c>
       <c r="J3" t="n">
-        <v>44.18181818181818</v>
+        <v>46.69230769230769</v>
       </c>
       <c r="K3" t="n">
-        <v>47.45454545454545</v>
+        <v>42.38461538461539</v>
       </c>
       <c r="L3" t="n">
-        <v>46.81818181818182</v>
+        <v>41.84615384615385</v>
       </c>
       <c r="M3" t="n">
-        <v>20.818181818181817</v>
+        <v>20.384615384615383</v>
       </c>
       <c r="N3" t="n">
-        <v>1.6157205240174672</v>
+        <v>1.7735849056603774</v>
       </c>
     </row>
     <row r="4">
@@ -335,40 +335,40 @@
         <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D4" t="n">
-        <v>120.0</v>
+        <v>270.0</v>
       </c>
       <c r="E4" t="n">
-        <v>30.0</v>
+        <v>45.0</v>
       </c>
       <c r="F4" t="n">
-        <v>800.0</v>
+        <v>3100.0</v>
       </c>
       <c r="G4" t="n">
-        <v>200.0</v>
+        <v>516.6666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I4" t="n">
-        <v>200.0</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>38.75</v>
+        <v>50.166666666666664</v>
       </c>
       <c r="K4" t="n">
-        <v>47.0</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="L4" t="n">
-        <v>47.0</v>
+        <v>36.833333333333336</v>
       </c>
       <c r="M4" t="n">
-        <v>22.75</v>
+        <v>17.666666666666668</v>
       </c>
       <c r="N4" t="n">
-        <v>1.3186813186813187</v>
+        <v>2.547169811320755</v>
       </c>
     </row>
     <row r="5">
@@ -379,40 +379,40 @@
         <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n">
-        <v>275.0</v>
+        <v>315.0</v>
       </c>
       <c r="E5" t="n">
-        <v>68.75</v>
+        <v>63.0</v>
       </c>
       <c r="F5" t="n">
-        <v>3750.0</v>
+        <v>4150.0</v>
       </c>
       <c r="G5" t="n">
-        <v>937.5</v>
+        <v>830.0</v>
       </c>
       <c r="H5" t="n">
-        <v>3000.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I5" t="n">
-        <v>750.0</v>
+        <v>660.0</v>
       </c>
       <c r="J5" t="n">
-        <v>37.75</v>
+        <v>37.6</v>
       </c>
       <c r="K5" t="n">
-        <v>22.75</v>
+        <v>32.0</v>
       </c>
       <c r="L5" t="n">
-        <v>22.75</v>
+        <v>25.6</v>
       </c>
       <c r="M5" t="n">
-        <v>20.25</v>
+        <v>21.8</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3950617283950617</v>
+        <v>2.889908256880734</v>
       </c>
     </row>
     <row r="6">
@@ -423,40 +423,40 @@
         <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D6" t="n">
-        <v>285.0</v>
+        <v>325.0</v>
       </c>
       <c r="E6" t="n">
-        <v>71.25</v>
+        <v>65.0</v>
       </c>
       <c r="F6" t="n">
-        <v>5050.0</v>
+        <v>5450.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1262.5</v>
+        <v>1090.0</v>
       </c>
       <c r="H6" t="n">
-        <v>3700.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I6" t="n">
-        <v>925.0</v>
+        <v>800.0</v>
       </c>
       <c r="J6" t="n">
-        <v>43.0</v>
+        <v>41.4</v>
       </c>
       <c r="K6" t="n">
-        <v>44.0</v>
+        <v>50.2</v>
       </c>
       <c r="L6" t="n">
-        <v>29.75</v>
+        <v>30.8</v>
       </c>
       <c r="M6" t="n">
-        <v>24.25</v>
+        <v>24.8</v>
       </c>
       <c r="N6" t="n">
-        <v>2.9381443298969074</v>
+        <v>2.620967741935484</v>
       </c>
     </row>
     <row r="7">
@@ -467,40 +467,40 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7" t="n">
-        <v>190.0</v>
+        <v>275.0</v>
       </c>
       <c r="E7" t="n">
-        <v>47.5</v>
+        <v>55.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1600.0</v>
+        <v>3800.0</v>
       </c>
       <c r="G7" t="n">
-        <v>400.0</v>
+        <v>760.0</v>
       </c>
       <c r="H7" t="n">
-        <v>2400.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I7" t="n">
-        <v>600.0</v>
+        <v>440.0</v>
       </c>
       <c r="J7" t="n">
-        <v>55.25</v>
+        <v>41.8</v>
       </c>
       <c r="K7" t="n">
-        <v>61.75</v>
+        <v>52.4</v>
       </c>
       <c r="L7" t="n">
-        <v>39.5</v>
+        <v>34.8</v>
       </c>
       <c r="M7" t="n">
-        <v>25.25</v>
+        <v>24.2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.881188118811881</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="8">
@@ -511,40 +511,40 @@
         <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" t="n">
-        <v>180.0</v>
+        <v>220.0</v>
       </c>
       <c r="E8" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2200.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G8" t="n">
-        <v>550.0</v>
+        <v>360.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1300.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I8" t="n">
-        <v>325.0</v>
+        <v>480.0</v>
       </c>
       <c r="J8" t="n">
-        <v>64.5</v>
+        <v>58.8</v>
       </c>
       <c r="K8" t="n">
-        <v>36.25</v>
+        <v>62.2</v>
       </c>
       <c r="L8" t="n">
-        <v>36.25</v>
+        <v>44.4</v>
       </c>
       <c r="M8" t="n">
-        <v>16.0</v>
+        <v>23.6</v>
       </c>
       <c r="N8" t="n">
-        <v>2.8125</v>
+        <v>1.8644067796610169</v>
       </c>
     </row>
     <row r="9">
@@ -555,40 +555,40 @@
         <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" t="n">
-        <v>205.0</v>
+        <v>180.0</v>
       </c>
       <c r="E9" t="n">
-        <v>68.33333333333333</v>
+        <v>36.0</v>
       </c>
       <c r="F9" t="n">
-        <v>2200.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G9" t="n">
-        <v>733.3333333333334</v>
+        <v>340.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1500.0</v>
+        <v>700.0</v>
       </c>
       <c r="I9" t="n">
-        <v>500.0</v>
+        <v>140.0</v>
       </c>
       <c r="J9" t="n">
-        <v>50.666666666666664</v>
+        <v>37.2</v>
       </c>
       <c r="K9" t="n">
-        <v>47.0</v>
+        <v>47.8</v>
       </c>
       <c r="L9" t="n">
-        <v>44.666666666666664</v>
+        <v>31.0</v>
       </c>
       <c r="M9" t="n">
-        <v>22.333333333333332</v>
+        <v>25.2</v>
       </c>
       <c r="N9" t="n">
-        <v>3.0597014925373136</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="10">
@@ -599,40 +599,40 @@
         <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10" t="n">
-        <v>215.0</v>
+        <v>120.0</v>
       </c>
       <c r="E10" t="n">
-        <v>71.66666666666667</v>
+        <v>30.0</v>
       </c>
       <c r="F10" t="n">
-        <v>3500.0</v>
+        <v>800.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1166.6666666666667</v>
+        <v>200.0</v>
       </c>
       <c r="H10" t="n">
-        <v>1800.0</v>
+        <v>800.0</v>
       </c>
       <c r="I10" t="n">
-        <v>600.0</v>
+        <v>200.0</v>
       </c>
       <c r="J10" t="n">
-        <v>42.0</v>
+        <v>38.75</v>
       </c>
       <c r="K10" t="n">
-        <v>53.333333333333336</v>
+        <v>47.0</v>
       </c>
       <c r="L10" t="n">
-        <v>24.0</v>
+        <v>47.0</v>
       </c>
       <c r="M10" t="n">
-        <v>23.666666666666668</v>
+        <v>22.75</v>
       </c>
       <c r="N10" t="n">
-        <v>3.028169014084507</v>
+        <v>1.3186813186813187</v>
       </c>
     </row>
     <row r="11">
@@ -643,40 +643,40 @@
         <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D11" t="n">
         <v>80.0</v>
       </c>
       <c r="E11" t="n">
-        <v>26.666666666666668</v>
+        <v>20.0</v>
       </c>
       <c r="F11" t="n">
         <v>700.0</v>
       </c>
       <c r="G11" t="n">
-        <v>233.33333333333334</v>
+        <v>175.0</v>
       </c>
       <c r="H11" t="n">
         <v>300.0</v>
       </c>
       <c r="I11" t="n">
-        <v>100.0</v>
+        <v>75.0</v>
       </c>
       <c r="J11" t="n">
-        <v>34.666666666666664</v>
+        <v>26.0</v>
       </c>
       <c r="K11" t="n">
-        <v>43.333333333333336</v>
+        <v>32.5</v>
       </c>
       <c r="L11" t="n">
-        <v>23.666666666666668</v>
+        <v>17.75</v>
       </c>
       <c r="M11" t="n">
-        <v>22.0</v>
+        <v>21.25</v>
       </c>
       <c r="N11" t="n">
-        <v>1.2121212121212122</v>
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="12">
@@ -687,34 +687,34 @@
         <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D12" t="n">
-        <v>120.0</v>
+        <v>160.0</v>
       </c>
       <c r="E12" t="n">
         <v>40.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1000.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G12" t="n">
-        <v>333.3333333333333</v>
+        <v>350.0</v>
       </c>
       <c r="H12" t="n">
-        <v>1800.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I12" t="n">
-        <v>600.0</v>
+        <v>525.0</v>
       </c>
       <c r="J12" t="n">
-        <v>22.666666666666668</v>
+        <v>25.75</v>
       </c>
       <c r="K12" t="n">
-        <v>41.333333333333336</v>
+        <v>42.25</v>
       </c>
       <c r="L12" t="n">
-        <v>22.666666666666668</v>
+        <v>25.75</v>
       </c>
       <c r="M12" t="n">
         <v>23.0</v>
@@ -731,40 +731,40 @@
         <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D13" t="n">
-        <v>135.0</v>
+        <v>215.0</v>
       </c>
       <c r="E13" t="n">
-        <v>45.0</v>
+        <v>53.75</v>
       </c>
       <c r="F13" t="n">
-        <v>1250.0</v>
+        <v>2750.0</v>
       </c>
       <c r="G13" t="n">
-        <v>416.6666666666667</v>
+        <v>687.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1200.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I13" t="n">
-        <v>400.0</v>
+        <v>825.0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="K13" t="n">
-        <v>36.333333333333336</v>
+        <v>33.5</v>
       </c>
       <c r="L13" t="n">
-        <v>36.333333333333336</v>
+        <v>33.5</v>
       </c>
       <c r="M13" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.9565217391304348</v>
+        <v>2.2395833333333335</v>
       </c>
     </row>
     <row r="14">
@@ -778,37 +778,37 @@
         <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>140.0</v>
+        <v>205.0</v>
       </c>
       <c r="E14" t="n">
-        <v>46.666666666666664</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>1300.0</v>
+        <v>2200.0</v>
       </c>
       <c r="G14" t="n">
-        <v>433.3333333333333</v>
+        <v>733.3333333333334</v>
       </c>
       <c r="H14" t="n">
-        <v>400.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I14" t="n">
-        <v>133.33333333333334</v>
+        <v>500.0</v>
       </c>
       <c r="J14" t="n">
-        <v>53.0</v>
+        <v>50.666666666666664</v>
       </c>
       <c r="K14" t="n">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
       <c r="L14" t="n">
-        <v>42.666666666666664</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="M14" t="n">
-        <v>25.0</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8666666666666667</v>
+        <v>3.0597014925373136</v>
       </c>
     </row>
     <row r="15">
@@ -822,37 +822,37 @@
         <v>3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>170.0</v>
+        <v>125.0</v>
       </c>
       <c r="E15" t="n">
-        <v>56.666666666666664</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="F15" t="n">
-        <v>2100.0</v>
+        <v>1050.0</v>
       </c>
       <c r="G15" t="n">
-        <v>700.0</v>
+        <v>350.0</v>
       </c>
       <c r="H15" t="n">
-        <v>2700.0</v>
+        <v>1450.0</v>
       </c>
       <c r="I15" t="n">
-        <v>900.0</v>
+        <v>483.3333333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>16.333333333333332</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="K15" t="n">
-        <v>26.666666666666668</v>
+        <v>42.333333333333336</v>
       </c>
       <c r="L15" t="n">
-        <v>16.333333333333332</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="M15" t="n">
-        <v>20.666666666666668</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="N15" t="n">
-        <v>2.7419354838709675</v>
+        <v>1.953125</v>
       </c>
     </row>
     <row r="16">
@@ -863,40 +863,40 @@
         <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D16" t="n">
-        <v>75.0</v>
+        <v>160.0</v>
       </c>
       <c r="E16" t="n">
-        <v>37.5</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F16" t="n">
-        <v>450.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G16" t="n">
-        <v>225.0</v>
+        <v>500.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1050.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I16" t="n">
-        <v>525.0</v>
+        <v>333.3333333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>13.5</v>
+        <v>80.0</v>
       </c>
       <c r="K16" t="n">
-        <v>59.0</v>
+        <v>41.333333333333336</v>
       </c>
       <c r="L16" t="n">
-        <v>41.0</v>
+        <v>41.333333333333336</v>
       </c>
       <c r="M16" t="n">
-        <v>20.5</v>
+        <v>22.0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.829268292682927</v>
+        <v>2.4242424242424243</v>
       </c>
     </row>
     <row r="17">
@@ -907,40 +907,40 @@
         <v>44</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D17" t="n">
-        <v>110.0</v>
+        <v>170.0</v>
       </c>
       <c r="E17" t="n">
-        <v>55.0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F17" t="n">
+        <v>2100.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="I17" t="n">
         <v>900.0</v>
       </c>
-      <c r="G17" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>500.0</v>
-      </c>
       <c r="J17" t="n">
-        <v>76.0</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="K17" t="n">
-        <v>30.0</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="L17" t="n">
-        <v>30.0</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="M17" t="n">
-        <v>22.5</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="N17" t="n">
-        <v>2.4444444444444446</v>
+        <v>2.7419354838709675</v>
       </c>
     </row>
   </sheetData>

--- a/B1_refereestats.xlsx
+++ b/B1_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Referee</t>
   </si>
@@ -101,6 +101,9 @@
     <t>16</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -110,43 +113,46 @@
     <t>Jasper Vergoote</t>
   </si>
   <si>
+    <t>Jan Boterberg</t>
+  </si>
+  <si>
     <t>Nicolas Laforge</t>
   </si>
   <si>
     <t>Nathan Verboomen</t>
   </si>
   <si>
+    <t>Lothar D'Hondt</t>
+  </si>
+  <si>
     <t>Kevin Van Damme</t>
   </si>
   <si>
+    <t>Simon Bourdeaud'hui</t>
+  </si>
+  <si>
     <t>Erik Lambrechts</t>
   </si>
   <si>
-    <t>Lothar D'Hondt</t>
-  </si>
-  <si>
-    <t>Jan Boterberg</t>
+    <t>Lawrence Visser</t>
   </si>
   <si>
     <t>Wim Smet</t>
   </si>
   <si>
-    <t>Simon Bourdeaud'hui</t>
+    <t>Bram Van Driessche</t>
   </si>
   <si>
     <t>Bert Put</t>
   </si>
   <si>
-    <t>Lawrence Visser</t>
+    <t>Michiel Allaerts</t>
   </si>
   <si>
     <t>Wesli De Cremer</t>
   </si>
   <si>
-    <t>Bram Van Driessche</t>
-  </si>
-  <si>
-    <t>Michiel Allaerts</t>
+    <t>Klass Clerkx</t>
   </si>
 </sst>
 </file>
@@ -244,7 +250,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
         <v>32.0</v>
@@ -288,43 +294,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="D3" t="n">
-        <v>470.0</v>
+        <v>685.0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.15384615384615</v>
+        <v>38.05555555555556</v>
       </c>
       <c r="F3" t="n">
-        <v>3750.0</v>
+        <v>6100.0</v>
       </c>
       <c r="G3" t="n">
-        <v>288.46153846153845</v>
+        <v>338.8888888888889</v>
       </c>
       <c r="H3" t="n">
-        <v>3100.0</v>
+        <v>6600.0</v>
       </c>
       <c r="I3" t="n">
-        <v>238.46153846153845</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>46.69230769230769</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="K3" t="n">
-        <v>42.38461538461539</v>
+        <v>36.05555555555556</v>
       </c>
       <c r="L3" t="n">
-        <v>41.84615384615385</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="M3" t="n">
-        <v>20.384615384615383</v>
+        <v>19.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.7735849056603774</v>
+        <v>1.9515669515669516</v>
       </c>
     </row>
     <row r="4">
@@ -332,43 +338,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D4" t="n">
-        <v>270.0</v>
+        <v>375.0</v>
       </c>
       <c r="E4" t="n">
-        <v>45.0</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="F4" t="n">
-        <v>3100.0</v>
+        <v>3600.0</v>
       </c>
       <c r="G4" t="n">
-        <v>516.6666666666666</v>
+        <v>400.0</v>
       </c>
       <c r="H4" t="n">
-        <v>2300.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I4" t="n">
-        <v>383.3333333333333</v>
+        <v>338.8888888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>50.166666666666664</v>
+        <v>46.55555555555556</v>
       </c>
       <c r="K4" t="n">
-        <v>36.833333333333336</v>
+        <v>39.44444444444444</v>
       </c>
       <c r="L4" t="n">
-        <v>36.833333333333336</v>
+        <v>37.0</v>
       </c>
       <c r="M4" t="n">
-        <v>17.666666666666668</v>
+        <v>17.444444444444443</v>
       </c>
       <c r="N4" t="n">
-        <v>2.547169811320755</v>
+        <v>2.388535031847134</v>
       </c>
     </row>
     <row r="5">
@@ -376,43 +382,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0</v>
+        <v>295.0</v>
       </c>
       <c r="E5" t="n">
-        <v>63.0</v>
+        <v>36.875</v>
       </c>
       <c r="F5" t="n">
-        <v>4150.0</v>
+        <v>2900.0</v>
       </c>
       <c r="G5" t="n">
-        <v>830.0</v>
+        <v>362.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3300.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I5" t="n">
-        <v>660.0</v>
+        <v>287.5</v>
       </c>
       <c r="J5" t="n">
-        <v>37.6</v>
+        <v>43.0</v>
       </c>
       <c r="K5" t="n">
-        <v>32.0</v>
+        <v>37.75</v>
       </c>
       <c r="L5" t="n">
-        <v>25.6</v>
+        <v>45.0</v>
       </c>
       <c r="M5" t="n">
-        <v>21.8</v>
+        <v>21.625</v>
       </c>
       <c r="N5" t="n">
-        <v>2.889908256880734</v>
+        <v>1.7052023121387283</v>
       </c>
     </row>
     <row r="6">
@@ -420,43 +426,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0</v>
+        <v>580.0</v>
       </c>
       <c r="E6" t="n">
-        <v>65.0</v>
+        <v>72.5</v>
       </c>
       <c r="F6" t="n">
-        <v>5450.0</v>
+        <v>9900.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1090.0</v>
+        <v>1237.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4000.0</v>
+        <v>6250.0</v>
       </c>
       <c r="I6" t="n">
-        <v>800.0</v>
+        <v>781.25</v>
       </c>
       <c r="J6" t="n">
-        <v>41.4</v>
+        <v>43.375</v>
       </c>
       <c r="K6" t="n">
-        <v>50.2</v>
+        <v>34.125</v>
       </c>
       <c r="L6" t="n">
-        <v>30.8</v>
+        <v>24.375</v>
       </c>
       <c r="M6" t="n">
-        <v>24.8</v>
+        <v>21.625</v>
       </c>
       <c r="N6" t="n">
-        <v>2.620967741935484</v>
+        <v>3.352601156069364</v>
       </c>
     </row>
     <row r="7">
@@ -464,43 +470,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D7" t="n">
-        <v>275.0</v>
+        <v>525.0</v>
       </c>
       <c r="E7" t="n">
-        <v>55.0</v>
+        <v>65.625</v>
       </c>
       <c r="F7" t="n">
-        <v>3800.0</v>
+        <v>8550.0</v>
       </c>
       <c r="G7" t="n">
-        <v>760.0</v>
+        <v>1068.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2200.0</v>
+        <v>7200.0</v>
       </c>
       <c r="I7" t="n">
-        <v>440.0</v>
+        <v>900.0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.8</v>
+        <v>37.75</v>
       </c>
       <c r="K7" t="n">
-        <v>52.4</v>
+        <v>44.75</v>
       </c>
       <c r="L7" t="n">
-        <v>34.8</v>
+        <v>29.5</v>
       </c>
       <c r="M7" t="n">
-        <v>24.2</v>
+        <v>23.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.272727272727273</v>
+        <v>2.7925531914893615</v>
       </c>
     </row>
     <row r="8">
@@ -508,43 +514,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D8" t="n">
-        <v>220.0</v>
+        <v>390.0</v>
       </c>
       <c r="E8" t="n">
-        <v>44.0</v>
+        <v>48.75</v>
       </c>
       <c r="F8" t="n">
-        <v>1800.0</v>
+        <v>3150.0</v>
       </c>
       <c r="G8" t="n">
-        <v>360.0</v>
+        <v>393.75</v>
       </c>
       <c r="H8" t="n">
-        <v>2400.0</v>
+        <v>2850.0</v>
       </c>
       <c r="I8" t="n">
-        <v>480.0</v>
+        <v>356.25</v>
       </c>
       <c r="J8" t="n">
-        <v>58.8</v>
+        <v>38.875</v>
       </c>
       <c r="K8" t="n">
-        <v>62.2</v>
+        <v>45.25</v>
       </c>
       <c r="L8" t="n">
-        <v>44.4</v>
+        <v>30.625</v>
       </c>
       <c r="M8" t="n">
-        <v>23.6</v>
+        <v>25.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.8644067796610169</v>
+        <v>1.911764705882353</v>
       </c>
     </row>
     <row r="9">
@@ -552,43 +558,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D9" t="n">
-        <v>180.0</v>
+        <v>385.0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1700.0</v>
+        <v>5300.0</v>
       </c>
       <c r="G9" t="n">
-        <v>340.0</v>
+        <v>757.1428571428571</v>
       </c>
       <c r="H9" t="n">
-        <v>700.0</v>
+        <v>3800.0</v>
       </c>
       <c r="I9" t="n">
-        <v>140.0</v>
+        <v>542.8571428571429</v>
       </c>
       <c r="J9" t="n">
-        <v>37.2</v>
+        <v>35.42857142857143</v>
       </c>
       <c r="K9" t="n">
-        <v>47.8</v>
+        <v>47.57142857142857</v>
       </c>
       <c r="L9" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="M9" t="n">
-        <v>25.2</v>
+        <v>21.571428571428573</v>
       </c>
       <c r="N9" t="n">
-        <v>1.4285714285714286</v>
+        <v>2.5496688741721854</v>
       </c>
     </row>
     <row r="10">
@@ -596,43 +602,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n">
-        <v>120.0</v>
+        <v>300.0</v>
       </c>
       <c r="E10" t="n">
-        <v>30.0</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="F10" t="n">
-        <v>800.0</v>
+        <v>3200.0</v>
       </c>
       <c r="G10" t="n">
-        <v>200.0</v>
+        <v>457.14285714285717</v>
       </c>
       <c r="H10" t="n">
-        <v>800.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I10" t="n">
-        <v>200.0</v>
+        <v>471.42857142857144</v>
       </c>
       <c r="J10" t="n">
-        <v>38.75</v>
+        <v>25.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.0</v>
+        <v>39.57142857142857</v>
       </c>
       <c r="L10" t="n">
-        <v>47.0</v>
+        <v>25.857142857142858</v>
       </c>
       <c r="M10" t="n">
-        <v>22.75</v>
+        <v>21.714285714285715</v>
       </c>
       <c r="N10" t="n">
-        <v>1.3186813186813187</v>
+        <v>1.9736842105263157</v>
       </c>
     </row>
     <row r="11">
@@ -640,43 +646,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" t="n">
-        <v>80.0</v>
+        <v>310.0</v>
       </c>
       <c r="E11" t="n">
-        <v>20.0</v>
+        <v>44.285714285714285</v>
       </c>
       <c r="F11" t="n">
-        <v>700.0</v>
+        <v>2800.0</v>
       </c>
       <c r="G11" t="n">
-        <v>175.0</v>
+        <v>400.0</v>
       </c>
       <c r="H11" t="n">
-        <v>300.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I11" t="n">
-        <v>75.0</v>
+        <v>371.42857142857144</v>
       </c>
       <c r="J11" t="n">
-        <v>26.0</v>
+        <v>54.42857142857143</v>
       </c>
       <c r="K11" t="n">
-        <v>32.5</v>
+        <v>58.857142857142854</v>
       </c>
       <c r="L11" t="n">
-        <v>17.75</v>
+        <v>43.57142857142857</v>
       </c>
       <c r="M11" t="n">
-        <v>21.25</v>
+        <v>22.857142857142858</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9411764705882353</v>
+        <v>1.9375</v>
       </c>
     </row>
     <row r="12">
@@ -684,43 +690,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D12" t="n">
-        <v>160.0</v>
+        <v>315.0</v>
       </c>
       <c r="E12" t="n">
-        <v>40.0</v>
+        <v>52.5</v>
       </c>
       <c r="F12" t="n">
-        <v>1400.0</v>
+        <v>3400.0</v>
       </c>
       <c r="G12" t="n">
-        <v>350.0</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>2100.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I12" t="n">
-        <v>525.0</v>
+        <v>450.0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.75</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="K12" t="n">
-        <v>42.25</v>
+        <v>40.166666666666664</v>
       </c>
       <c r="L12" t="n">
-        <v>25.75</v>
+        <v>28.166666666666668</v>
       </c>
       <c r="M12" t="n">
-        <v>23.0</v>
+        <v>20.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7391304347826086</v>
+        <v>2.5609756097560976</v>
       </c>
     </row>
     <row r="13">
@@ -728,43 +734,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D13" t="n">
-        <v>215.0</v>
+        <v>130.0</v>
       </c>
       <c r="E13" t="n">
-        <v>53.75</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="F13" t="n">
-        <v>2750.0</v>
+        <v>900.0</v>
       </c>
       <c r="G13" t="n">
-        <v>687.5</v>
+        <v>150.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3300.0</v>
+        <v>300.0</v>
       </c>
       <c r="I13" t="n">
-        <v>825.0</v>
+        <v>50.0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.0</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="K13" t="n">
-        <v>33.5</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="L13" t="n">
-        <v>33.5</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="M13" t="n">
-        <v>24.0</v>
+        <v>21.5</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2395833333333335</v>
+        <v>1.0077519379844961</v>
       </c>
     </row>
     <row r="14">
@@ -772,43 +778,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D14" t="n">
-        <v>205.0</v>
+        <v>230.0</v>
       </c>
       <c r="E14" t="n">
-        <v>68.33333333333333</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F14" t="n">
-        <v>2200.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G14" t="n">
-        <v>733.3333333333334</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1500.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I14" t="n">
-        <v>500.0</v>
+        <v>200.0</v>
       </c>
       <c r="J14" t="n">
-        <v>50.666666666666664</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="K14" t="n">
-        <v>47.0</v>
+        <v>43.5</v>
       </c>
       <c r="L14" t="n">
-        <v>44.666666666666664</v>
+        <v>51.5</v>
       </c>
       <c r="M14" t="n">
         <v>22.333333333333332</v>
       </c>
       <c r="N14" t="n">
-        <v>3.0597014925373136</v>
+        <v>1.7164179104477613</v>
       </c>
     </row>
     <row r="15">
@@ -816,43 +822,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D15" t="n">
-        <v>125.0</v>
+        <v>235.0</v>
       </c>
       <c r="E15" t="n">
-        <v>41.666666666666664</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="F15" t="n">
-        <v>1050.0</v>
+        <v>2750.0</v>
       </c>
       <c r="G15" t="n">
-        <v>350.0</v>
+        <v>458.3333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1450.0</v>
+        <v>3400.0</v>
       </c>
       <c r="I15" t="n">
-        <v>483.3333333333333</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="J15" t="n">
-        <v>25.666666666666668</v>
+        <v>22.5</v>
       </c>
       <c r="K15" t="n">
-        <v>42.333333333333336</v>
+        <v>22.333333333333332</v>
       </c>
       <c r="L15" t="n">
-        <v>30.333333333333332</v>
+        <v>22.833333333333332</v>
       </c>
       <c r="M15" t="n">
-        <v>21.333333333333332</v>
+        <v>21.0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.953125</v>
+        <v>1.8650793650793651</v>
       </c>
     </row>
     <row r="16">
@@ -860,43 +866,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D16" t="n">
-        <v>160.0</v>
+        <v>200.0</v>
       </c>
       <c r="E16" t="n">
-        <v>53.333333333333336</v>
+        <v>50.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1500.0</v>
+        <v>2300.0</v>
       </c>
       <c r="G16" t="n">
-        <v>500.0</v>
+        <v>575.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1000.0</v>
+        <v>2700.0</v>
       </c>
       <c r="I16" t="n">
-        <v>333.3333333333333</v>
+        <v>675.0</v>
       </c>
       <c r="J16" t="n">
-        <v>80.0</v>
+        <v>28.25</v>
       </c>
       <c r="K16" t="n">
-        <v>41.333333333333336</v>
+        <v>32.0</v>
       </c>
       <c r="L16" t="n">
-        <v>41.333333333333336</v>
+        <v>24.25</v>
       </c>
       <c r="M16" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.4242424242424243</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
@@ -904,43 +910,87 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
         <v>3.0</v>
       </c>
       <c r="D17" t="n">
-        <v>170.0</v>
+        <v>125.0</v>
       </c>
       <c r="E17" t="n">
-        <v>56.666666666666664</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="F17" t="n">
-        <v>2100.0</v>
+        <v>1050.0</v>
       </c>
       <c r="G17" t="n">
-        <v>700.0</v>
+        <v>350.0</v>
       </c>
       <c r="H17" t="n">
-        <v>2700.0</v>
+        <v>1450.0</v>
       </c>
       <c r="I17" t="n">
-        <v>900.0</v>
+        <v>483.3333333333333</v>
       </c>
       <c r="J17" t="n">
-        <v>16.333333333333332</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="K17" t="n">
-        <v>26.666666666666668</v>
+        <v>42.333333333333336</v>
       </c>
       <c r="L17" t="n">
-        <v>16.333333333333332</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="M17" t="n">
-        <v>20.666666666666668</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="N17" t="n">
-        <v>2.7419354838709675</v>
+        <v>1.953125</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.7083333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/B1_refereestats.xlsx
+++ b/B1_refereestats.xlsx
@@ -113,37 +113,37 @@
     <t>Jasper Vergoote</t>
   </si>
   <si>
+    <t>Nicolas Laforge</t>
+  </si>
+  <si>
     <t>Jan Boterberg</t>
   </si>
   <si>
-    <t>Nicolas Laforge</t>
-  </si>
-  <si>
     <t>Nathan Verboomen</t>
   </si>
   <si>
     <t>Lothar D'Hondt</t>
   </si>
   <si>
+    <t>Lawrence Visser</t>
+  </si>
+  <si>
     <t>Kevin Van Damme</t>
   </si>
   <si>
+    <t>Erik Lambrechts</t>
+  </si>
+  <si>
+    <t>Wim Smet</t>
+  </si>
+  <si>
+    <t>Bert Put</t>
+  </si>
+  <si>
+    <t>Bram Van Driessche</t>
+  </si>
+  <si>
     <t>Simon Bourdeaud'hui</t>
-  </si>
-  <si>
-    <t>Erik Lambrechts</t>
-  </si>
-  <si>
-    <t>Lawrence Visser</t>
-  </si>
-  <si>
-    <t>Wim Smet</t>
-  </si>
-  <si>
-    <t>Bram Van Driessche</t>
-  </si>
-  <si>
-    <t>Bert Put</t>
   </si>
   <si>
     <t>Michiel Allaerts</t>
@@ -253,40 +253,40 @@
         <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1355.0</v>
+        <v>1255.0</v>
       </c>
       <c r="E2" t="n">
-        <v>42.34375</v>
+        <v>44.82142857142857</v>
       </c>
       <c r="F2" t="n">
-        <v>13850.0</v>
+        <v>13050.0</v>
       </c>
       <c r="G2" t="n">
-        <v>432.8125</v>
+        <v>466.07142857142856</v>
       </c>
       <c r="H2" t="n">
-        <v>10900.0</v>
+        <v>9900.0</v>
       </c>
       <c r="I2" t="n">
-        <v>340.625</v>
+        <v>353.57142857142856</v>
       </c>
       <c r="J2" t="n">
-        <v>41.15625</v>
+        <v>43.07142857142857</v>
       </c>
       <c r="K2" t="n">
-        <v>41.84375</v>
+        <v>44.714285714285715</v>
       </c>
       <c r="L2" t="n">
-        <v>34.4375</v>
+        <v>35.75</v>
       </c>
       <c r="M2" t="n">
-        <v>21.75</v>
+        <v>21.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9468390804597702</v>
+        <v>2.0847176079734218</v>
       </c>
     </row>
     <row r="3">
@@ -297,40 +297,40 @@
         <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="D3" t="n">
-        <v>685.0</v>
+        <v>1085.0</v>
       </c>
       <c r="E3" t="n">
-        <v>38.05555555555556</v>
+        <v>40.18518518518518</v>
       </c>
       <c r="F3" t="n">
-        <v>6100.0</v>
+        <v>9350.0</v>
       </c>
       <c r="G3" t="n">
-        <v>338.8888888888889</v>
+        <v>346.2962962962963</v>
       </c>
       <c r="H3" t="n">
-        <v>6600.0</v>
+        <v>9450.0</v>
       </c>
       <c r="I3" t="n">
-        <v>366.6666666666667</v>
+        <v>350.0</v>
       </c>
       <c r="J3" t="n">
-        <v>44.166666666666664</v>
+        <v>40.148148148148145</v>
       </c>
       <c r="K3" t="n">
-        <v>36.05555555555556</v>
+        <v>38.55555555555556</v>
       </c>
       <c r="L3" t="n">
-        <v>35.666666666666664</v>
+        <v>36.03703703703704</v>
       </c>
       <c r="M3" t="n">
-        <v>19.5</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="N3" t="n">
-        <v>1.9515669515669516</v>
+        <v>1.9981583793738489</v>
       </c>
     </row>
     <row r="4">
@@ -341,40 +341,40 @@
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="D4" t="n">
-        <v>375.0</v>
+        <v>660.0</v>
       </c>
       <c r="E4" t="n">
-        <v>41.666666666666664</v>
+        <v>41.25</v>
       </c>
       <c r="F4" t="n">
-        <v>3600.0</v>
+        <v>8100.0</v>
       </c>
       <c r="G4" t="n">
-        <v>400.0</v>
+        <v>506.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3050.0</v>
+        <v>6250.0</v>
       </c>
       <c r="I4" t="n">
-        <v>338.8888888888889</v>
+        <v>390.625</v>
       </c>
       <c r="J4" t="n">
-        <v>46.55555555555556</v>
+        <v>35.8125</v>
       </c>
       <c r="K4" t="n">
-        <v>39.44444444444444</v>
+        <v>32.125</v>
       </c>
       <c r="L4" t="n">
-        <v>37.0</v>
+        <v>29.625</v>
       </c>
       <c r="M4" t="n">
-        <v>17.444444444444443</v>
+        <v>18.0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.388535031847134</v>
+        <v>2.2916666666666665</v>
       </c>
     </row>
     <row r="5">
@@ -385,40 +385,40 @@
         <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="D5" t="n">
-        <v>295.0</v>
+        <v>810.0</v>
       </c>
       <c r="E5" t="n">
-        <v>36.875</v>
+        <v>54.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2900.0</v>
+        <v>12100.0</v>
       </c>
       <c r="G5" t="n">
-        <v>362.5</v>
+        <v>806.6666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>2300.0</v>
+        <v>9050.0</v>
       </c>
       <c r="I5" t="n">
-        <v>287.5</v>
+        <v>603.3333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>43.0</v>
+        <v>36.93333333333333</v>
       </c>
       <c r="K5" t="n">
-        <v>37.75</v>
+        <v>31.0</v>
       </c>
       <c r="L5" t="n">
-        <v>45.0</v>
+        <v>25.8</v>
       </c>
       <c r="M5" t="n">
-        <v>21.625</v>
+        <v>20.866666666666667</v>
       </c>
       <c r="N5" t="n">
-        <v>1.7052023121387283</v>
+        <v>2.587859424920128</v>
       </c>
     </row>
     <row r="6">
@@ -429,40 +429,40 @@
         <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="D6" t="n">
-        <v>580.0</v>
+        <v>550.0</v>
       </c>
       <c r="E6" t="n">
-        <v>72.5</v>
+        <v>39.285714285714285</v>
       </c>
       <c r="F6" t="n">
-        <v>9900.0</v>
+        <v>5950.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1237.5</v>
+        <v>425.0</v>
       </c>
       <c r="H6" t="n">
-        <v>6250.0</v>
+        <v>4800.0</v>
       </c>
       <c r="I6" t="n">
-        <v>781.25</v>
+        <v>342.85714285714283</v>
       </c>
       <c r="J6" t="n">
-        <v>43.375</v>
+        <v>41.642857142857146</v>
       </c>
       <c r="K6" t="n">
-        <v>34.125</v>
+        <v>43.857142857142854</v>
       </c>
       <c r="L6" t="n">
-        <v>24.375</v>
+        <v>39.92857142857143</v>
       </c>
       <c r="M6" t="n">
-        <v>21.625</v>
+        <v>19.928571428571427</v>
       </c>
       <c r="N6" t="n">
-        <v>3.352601156069364</v>
+        <v>1.971326164874552</v>
       </c>
     </row>
     <row r="7">
@@ -473,40 +473,40 @@
         <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="D7" t="n">
-        <v>525.0</v>
+        <v>780.0</v>
       </c>
       <c r="E7" t="n">
-        <v>65.625</v>
+        <v>60.0</v>
       </c>
       <c r="F7" t="n">
-        <v>8550.0</v>
+        <v>13625.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1068.75</v>
+        <v>1048.076923076923</v>
       </c>
       <c r="H7" t="n">
-        <v>7200.0</v>
+        <v>9650.0</v>
       </c>
       <c r="I7" t="n">
-        <v>900.0</v>
+        <v>742.3076923076923</v>
       </c>
       <c r="J7" t="n">
-        <v>37.75</v>
+        <v>44.23076923076923</v>
       </c>
       <c r="K7" t="n">
-        <v>44.75</v>
+        <v>41.0</v>
       </c>
       <c r="L7" t="n">
-        <v>29.5</v>
+        <v>31.615384615384617</v>
       </c>
       <c r="M7" t="n">
-        <v>23.5</v>
+        <v>22.692307692307693</v>
       </c>
       <c r="N7" t="n">
-        <v>2.7925531914893615</v>
+        <v>2.6440677966101696</v>
       </c>
     </row>
     <row r="8">
@@ -517,40 +517,40 @@
         <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="D8" t="n">
-        <v>390.0</v>
+        <v>625.0</v>
       </c>
       <c r="E8" t="n">
-        <v>48.75</v>
+        <v>48.07692307692308</v>
       </c>
       <c r="F8" t="n">
-        <v>3150.0</v>
+        <v>6450.0</v>
       </c>
       <c r="G8" t="n">
-        <v>393.75</v>
+        <v>496.15384615384613</v>
       </c>
       <c r="H8" t="n">
-        <v>2850.0</v>
+        <v>5150.0</v>
       </c>
       <c r="I8" t="n">
-        <v>356.25</v>
+        <v>396.15384615384613</v>
       </c>
       <c r="J8" t="n">
-        <v>38.875</v>
+        <v>47.76923076923077</v>
       </c>
       <c r="K8" t="n">
-        <v>45.25</v>
+        <v>46.30769230769231</v>
       </c>
       <c r="L8" t="n">
-        <v>30.625</v>
+        <v>36.15384615384615</v>
       </c>
       <c r="M8" t="n">
-        <v>25.5</v>
+        <v>25.76923076923077</v>
       </c>
       <c r="N8" t="n">
-        <v>1.911764705882353</v>
+        <v>1.8656716417910448</v>
       </c>
     </row>
     <row r="9">
@@ -561,40 +561,40 @@
         <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D9" t="n">
-        <v>385.0</v>
+        <v>735.0</v>
       </c>
       <c r="E9" t="n">
-        <v>55.0</v>
+        <v>61.25</v>
       </c>
       <c r="F9" t="n">
-        <v>5300.0</v>
+        <v>13475.0</v>
       </c>
       <c r="G9" t="n">
-        <v>757.1428571428571</v>
+        <v>1122.9166666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>3800.0</v>
+        <v>6350.0</v>
       </c>
       <c r="I9" t="n">
-        <v>542.8571428571429</v>
+        <v>529.1666666666666</v>
       </c>
       <c r="J9" t="n">
-        <v>35.42857142857143</v>
+        <v>36.5</v>
       </c>
       <c r="K9" t="n">
-        <v>47.57142857142857</v>
+        <v>40.916666666666664</v>
       </c>
       <c r="L9" t="n">
-        <v>28.0</v>
+        <v>32.75</v>
       </c>
       <c r="M9" t="n">
-        <v>21.571428571428573</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5496688741721854</v>
+        <v>3.114406779661017</v>
       </c>
     </row>
     <row r="10">
@@ -605,40 +605,40 @@
         <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D10" t="n">
-        <v>300.0</v>
+        <v>615.0</v>
       </c>
       <c r="E10" t="n">
-        <v>42.857142857142854</v>
+        <v>51.25</v>
       </c>
       <c r="F10" t="n">
-        <v>3200.0</v>
+        <v>7500.0</v>
       </c>
       <c r="G10" t="n">
-        <v>457.14285714285717</v>
+        <v>625.0</v>
       </c>
       <c r="H10" t="n">
-        <v>3300.0</v>
+        <v>4750.0</v>
       </c>
       <c r="I10" t="n">
-        <v>471.42857142857144</v>
+        <v>395.8333333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>25.0</v>
+        <v>39.583333333333336</v>
       </c>
       <c r="K10" t="n">
-        <v>39.57142857142857</v>
+        <v>52.0</v>
       </c>
       <c r="L10" t="n">
-        <v>25.857142857142858</v>
+        <v>36.583333333333336</v>
       </c>
       <c r="M10" t="n">
-        <v>21.714285714285715</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="N10" t="n">
-        <v>1.9736842105263157</v>
+        <v>2.6739130434782608</v>
       </c>
     </row>
     <row r="11">
@@ -649,40 +649,40 @@
         <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.0</v>
+        <v>455.0</v>
       </c>
       <c r="E11" t="n">
-        <v>44.285714285714285</v>
+        <v>37.916666666666664</v>
       </c>
       <c r="F11" t="n">
-        <v>2800.0</v>
+        <v>3950.0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.0</v>
+        <v>329.1666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>2600.0</v>
+        <v>3950.0</v>
       </c>
       <c r="I11" t="n">
-        <v>371.42857142857144</v>
+        <v>329.1666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>54.42857142857143</v>
+        <v>57.833333333333336</v>
       </c>
       <c r="K11" t="n">
-        <v>58.857142857142854</v>
+        <v>48.916666666666664</v>
       </c>
       <c r="L11" t="n">
-        <v>43.57142857142857</v>
+        <v>46.416666666666664</v>
       </c>
       <c r="M11" t="n">
-        <v>22.857142857142858</v>
+        <v>22.416666666666668</v>
       </c>
       <c r="N11" t="n">
-        <v>1.9375</v>
+        <v>1.691449814126394</v>
       </c>
     </row>
     <row r="12">
@@ -693,40 +693,40 @@
         <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D12" t="n">
-        <v>315.0</v>
+        <v>250.0</v>
       </c>
       <c r="E12" t="n">
-        <v>52.5</v>
+        <v>22.727272727272727</v>
       </c>
       <c r="F12" t="n">
-        <v>3400.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G12" t="n">
-        <v>566.6666666666666</v>
+        <v>145.45454545454547</v>
       </c>
       <c r="H12" t="n">
-        <v>2700.0</v>
+        <v>500.0</v>
       </c>
       <c r="I12" t="n">
-        <v>450.0</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="J12" t="n">
-        <v>29.333333333333332</v>
+        <v>32.27272727272727</v>
       </c>
       <c r="K12" t="n">
-        <v>40.166666666666664</v>
+        <v>49.63636363636363</v>
       </c>
       <c r="L12" t="n">
-        <v>28.166666666666668</v>
+        <v>42.0</v>
       </c>
       <c r="M12" t="n">
-        <v>20.5</v>
+        <v>22.636363636363637</v>
       </c>
       <c r="N12" t="n">
-        <v>2.5609756097560976</v>
+        <v>1.0040160642570282</v>
       </c>
     </row>
     <row r="13">
@@ -737,40 +737,40 @@
         <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D13" t="n">
-        <v>130.0</v>
+        <v>420.0</v>
       </c>
       <c r="E13" t="n">
-        <v>21.666666666666668</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="F13" t="n">
-        <v>900.0</v>
+        <v>5100.0</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0</v>
+        <v>463.6363636363636</v>
       </c>
       <c r="H13" t="n">
-        <v>300.0</v>
+        <v>5600.0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.0</v>
+        <v>509.09090909090907</v>
       </c>
       <c r="J13" t="n">
-        <v>30.833333333333332</v>
+        <v>25.636363636363637</v>
       </c>
       <c r="K13" t="n">
-        <v>34.666666666666664</v>
+        <v>25.363636363636363</v>
       </c>
       <c r="L13" t="n">
-        <v>25.333333333333332</v>
+        <v>22.09090909090909</v>
       </c>
       <c r="M13" t="n">
-        <v>21.5</v>
+        <v>21.636363636363637</v>
       </c>
       <c r="N13" t="n">
-        <v>1.0077519379844961</v>
+        <v>1.7647058823529411</v>
       </c>
     </row>
     <row r="14">
@@ -781,40 +781,40 @@
         <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D14" t="n">
-        <v>230.0</v>
+        <v>410.0</v>
       </c>
       <c r="E14" t="n">
-        <v>38.333333333333336</v>
+        <v>37.27272727272727</v>
       </c>
       <c r="F14" t="n">
-        <v>1900.0</v>
+        <v>4400.0</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6666666666667</v>
+        <v>400.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1200.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.0</v>
+        <v>218.1818181818182</v>
       </c>
       <c r="J14" t="n">
-        <v>70.83333333333333</v>
+        <v>51.81818181818182</v>
       </c>
       <c r="K14" t="n">
-        <v>43.5</v>
+        <v>48.54545454545455</v>
       </c>
       <c r="L14" t="n">
-        <v>51.5</v>
+        <v>48.45454545454545</v>
       </c>
       <c r="M14" t="n">
-        <v>22.333333333333332</v>
+        <v>22.272727272727273</v>
       </c>
       <c r="N14" t="n">
-        <v>1.7164179104477613</v>
+        <v>1.6734693877551021</v>
       </c>
     </row>
     <row r="15">
@@ -825,40 +825,40 @@
         <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D15" t="n">
-        <v>235.0</v>
+        <v>430.0</v>
       </c>
       <c r="E15" t="n">
-        <v>39.166666666666664</v>
+        <v>43.0</v>
       </c>
       <c r="F15" t="n">
-        <v>2750.0</v>
+        <v>4600.0</v>
       </c>
       <c r="G15" t="n">
-        <v>458.3333333333333</v>
+        <v>460.0</v>
       </c>
       <c r="H15" t="n">
-        <v>3400.0</v>
+        <v>3800.0</v>
       </c>
       <c r="I15" t="n">
-        <v>566.6666666666666</v>
+        <v>380.0</v>
       </c>
       <c r="J15" t="n">
-        <v>22.5</v>
+        <v>34.6</v>
       </c>
       <c r="K15" t="n">
-        <v>22.333333333333332</v>
+        <v>42.3</v>
       </c>
       <c r="L15" t="n">
-        <v>22.833333333333332</v>
+        <v>30.7</v>
       </c>
       <c r="M15" t="n">
-        <v>21.0</v>
+        <v>19.8</v>
       </c>
       <c r="N15" t="n">
-        <v>1.8650793650793651</v>
+        <v>2.1717171717171717</v>
       </c>
     </row>
     <row r="16">
@@ -869,40 +869,40 @@
         <v>44</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D16" t="n">
-        <v>200.0</v>
+        <v>295.0</v>
       </c>
       <c r="E16" t="n">
-        <v>50.0</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="F16" t="n">
-        <v>2300.0</v>
+        <v>3050.0</v>
       </c>
       <c r="G16" t="n">
-        <v>575.0</v>
+        <v>508.3333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>2700.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I16" t="n">
-        <v>675.0</v>
+        <v>550.0</v>
       </c>
       <c r="J16" t="n">
-        <v>28.25</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="K16" t="n">
-        <v>32.0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="L16" t="n">
-        <v>24.25</v>
+        <v>28.166666666666668</v>
       </c>
       <c r="M16" t="n">
-        <v>20.0</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="N16" t="n">
-        <v>2.5</v>
+        <v>2.379032258064516</v>
       </c>
     </row>
     <row r="17">
@@ -913,40 +913,40 @@
         <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D17" t="n">
-        <v>125.0</v>
+        <v>155.0</v>
       </c>
       <c r="E17" t="n">
-        <v>41.666666666666664</v>
+        <v>38.75</v>
       </c>
       <c r="F17" t="n">
-        <v>1050.0</v>
+        <v>1250.0</v>
       </c>
       <c r="G17" t="n">
-        <v>350.0</v>
+        <v>312.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1450.0</v>
+        <v>1750.0</v>
       </c>
       <c r="I17" t="n">
-        <v>483.3333333333333</v>
+        <v>437.5</v>
       </c>
       <c r="J17" t="n">
-        <v>25.666666666666668</v>
+        <v>30.75</v>
       </c>
       <c r="K17" t="n">
-        <v>42.333333333333336</v>
+        <v>40.75</v>
       </c>
       <c r="L17" t="n">
-        <v>30.333333333333332</v>
+        <v>31.75</v>
       </c>
       <c r="M17" t="n">
-        <v>21.333333333333332</v>
+        <v>22.0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.953125</v>
+        <v>1.7613636363636365</v>
       </c>
     </row>
     <row r="18">
